--- a/map/celltype2subtype.xlsx
+++ b/map/celltype2subtype.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="332">
   <si>
     <t>Species</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1174,6 +1174,50 @@
   </si>
   <si>
     <t>Smooth muscle cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quiescent stellate cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alpha cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delta cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ductal cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schwann</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epsilon cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gamma cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activated stellate cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stellate cell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1520,10 +1564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1532,6 +1576,7 @@
     <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="45.75" customWidth="1"/>
     <col min="4" max="4" width="53.125" customWidth="1"/>
+    <col min="5" max="5" width="19.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
@@ -2343,7 +2388,7 @@
         <v>90</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
@@ -2414,6 +2459,146 @@
       </c>
       <c r="D63" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
